--- a/src/main/resources/hr/payroll6Table.xlsx
+++ b/src/main/resources/hr/payroll6Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15C3732-C118-4F15-BF0B-B002D1670AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8F4A9-EAD7-4AEA-9C4A-D813FD0C781C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -146,7 +146,7 @@
     <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="180" formatCode="##&quot;회&quot;"/>
     <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="183" formatCode="#,##0_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -455,7 +455,7 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,16 +464,34 @@
     <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +499,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -494,37 +521,10 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -845,69 +845,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="29"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="30"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="3"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="M3" s="40" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="M3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -919,8 +919,8 @@
         <v>3</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
@@ -929,8 +929,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="M4" s="8" t="s">
         <v>2</v>
       </c>
@@ -938,8 +938,8 @@
         <v>3</v>
       </c>
       <c r="O4" s="9"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
@@ -951,8 +951,8 @@
         <v>5</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="s">
         <v>4</v>
@@ -961,8 +961,8 @@
         <v>5</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="M5" s="10" t="s">
         <v>4</v>
       </c>
@@ -970,66 +970,66 @@
         <v>5</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="M6" s="35" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="37" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="M7" s="37"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
     </row>
@@ -1041,8 +1041,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
         <v>9</v>
@@ -1051,8 +1051,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="M8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1060,66 +1060,66 @@
         <v>5</v>
       </c>
       <c r="O8" s="11"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="M9" s="35" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="M9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="M10" s="36"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
@@ -1131,8 +1131,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="4"/>
       <c r="G11" s="10" t="s">
         <v>13</v>
@@ -1141,8 +1141,8 @@
         <v>5</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1150,8 +1150,8 @@
         <v>5</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
@@ -1161,23 +1161,23 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
       <c r="M12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
@@ -1187,23 +1187,23 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="4"/>
       <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
       <c r="M13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
@@ -1211,31 +1211,25 @@
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="4"/>
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
       <c r="M14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
@@ -1245,23 +1239,23 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="4"/>
       <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
       <c r="M15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
@@ -1271,23 +1265,23 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="4"/>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
       <c r="M16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
@@ -1297,23 +1291,23 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="M17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
@@ -1391,62 +1385,62 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="35" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="35" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="9"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="30"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
@@ -1456,48 +1450,69 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="4"/>
       <c r="G23" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="6"/>
       <c r="M23" s="23" t="s">
         <v>25</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="28"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="45"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A9:A10"/>
@@ -1514,46 +1529,25 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll6Table.xlsx
+++ b/src/main/resources/hr/payroll6Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8F4A9-EAD7-4AEA-9C4A-D813FD0C781C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AD6A9-28A7-4BA4-BDB3-F9A6629DA4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,9 +452,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -464,10 +461,10 @@
     <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,28 +473,28 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,22 +506,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -822,7 +819,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -845,69 +842,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="35"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="36"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="3"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="M3" s="31" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="M3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -919,8 +916,8 @@
         <v>3</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
@@ -929,8 +926,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
       <c r="M4" s="8" t="s">
         <v>2</v>
       </c>
@@ -938,8 +935,8 @@
         <v>3</v>
       </c>
       <c r="O4" s="9"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
@@ -951,8 +948,8 @@
         <v>5</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="s">
         <v>4</v>
@@ -961,8 +958,8 @@
         <v>5</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
       <c r="M5" s="10" t="s">
         <v>4</v>
       </c>
@@ -970,66 +967,66 @@
         <v>5</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="M6" s="37" t="s">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="M6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="M7" s="39"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
     </row>
@@ -1041,8 +1038,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
         <v>9</v>
@@ -1051,8 +1048,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
       <c r="M8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1060,66 +1057,66 @@
         <v>5</v>
       </c>
       <c r="O8" s="11"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="M9" s="37" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="M9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="M10" s="38"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
@@ -1131,8 +1128,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4"/>
       <c r="G11" s="10" t="s">
         <v>13</v>
@@ -1141,8 +1138,8 @@
         <v>5</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
       <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1150,8 +1147,8 @@
         <v>5</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
@@ -1161,23 +1158,23 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
       <c r="M12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
@@ -1187,23 +1184,23 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4"/>
       <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
       <c r="M13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
@@ -1213,23 +1210,23 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="4"/>
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
       <c r="M14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
@@ -1238,24 +1235,24 @@
         <v>17</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4"/>
       <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
       <c r="M15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="17"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
@@ -1264,24 +1261,24 @@
         <v>18</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="4"/>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
       <c r="M16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
@@ -1290,24 +1287,24 @@
         <v>19</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="17"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
       <c r="M17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
@@ -1316,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="4"/>
@@ -1324,7 +1321,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
       <c r="L18" s="6"/>
@@ -1332,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
       <c r="S18" s="5"/>
@@ -1343,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="4"/>
@@ -1351,15 +1348,15 @@
         <v>21</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="22"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N19" s="16"/>
-      <c r="O19" s="21"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="20"/>
     </row>
@@ -1385,134 +1382,113 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="28" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="28" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="9"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="28"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A9:A10"/>
@@ -1529,25 +1505,46 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll6Table.xlsx
+++ b/src/main/resources/hr/payroll6Table.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AD6A9-28A7-4BA4-BDB3-F9A6629DA4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4AA2727E-1FD7-4F71-B61C-A34379E02DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="5820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="급여표" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">급여표!$A$1:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,12 +442,6 @@
     <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -461,10 +451,10 @@
     <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,17 +463,38 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -491,37 +502,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -818,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -842,69 +832,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="28"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="32"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="29"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="3"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="M3" s="41" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="M3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -916,8 +906,8 @@
         <v>3</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
@@ -926,8 +916,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="M4" s="8" t="s">
         <v>2</v>
       </c>
@@ -935,8 +925,8 @@
         <v>3</v>
       </c>
       <c r="O4" s="9"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
@@ -948,8 +938,8 @@
         <v>5</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="s">
         <v>4</v>
@@ -958,8 +948,8 @@
         <v>5</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
       <c r="M5" s="10" t="s">
         <v>4</v>
       </c>
@@ -967,66 +957,66 @@
         <v>5</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="M6" s="36" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="M7" s="38"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
     </row>
@@ -1038,8 +1028,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
         <v>9</v>
@@ -1048,8 +1038,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
       <c r="M8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1057,66 +1047,66 @@
         <v>5</v>
       </c>
       <c r="O8" s="11"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="M9" s="36" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="M10" s="37"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
@@ -1128,8 +1118,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="4"/>
       <c r="G11" s="10" t="s">
         <v>13</v>
@@ -1138,8 +1128,8 @@
         <v>5</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
       <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1147,8 +1137,8 @@
         <v>5</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
@@ -1158,23 +1148,23 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
       <c r="M12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="27"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
@@ -1184,23 +1174,23 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="4"/>
       <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="M13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
@@ -1210,23 +1200,23 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="4"/>
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="M14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
@@ -1236,23 +1226,23 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="4"/>
       <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
       <c r="M15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="33"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
@@ -1262,23 +1252,23 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="4"/>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
       <c r="M16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
@@ -1288,23 +1278,23 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
       <c r="M17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
@@ -1314,24 +1304,24 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="4"/>
       <c r="G18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="6"/>
       <c r="M18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
@@ -1341,154 +1331,184 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="4"/>
       <c r="G19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="4"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="6"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="32" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="32" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="9"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="29"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="84">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A9:A10"/>
@@ -1505,46 +1525,25 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll6Table.xlsx
+++ b/src/main/resources/hr/payroll6Table.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4AA2727E-1FD7-4F71-B61C-A34379E02DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65936B99-D3F6-460B-810E-8E020E23C457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="5820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">급여표!$A$1:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -806,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -823,11 +827,10 @@
     <col min="13" max="14" width="12" style="5" customWidth="1"/>
     <col min="15" max="17" width="9" style="5" customWidth="1"/>
     <col min="18" max="18" width="1.625" style="5" customWidth="1"/>
-    <col min="19" max="20" width="8" style="6"/>
-    <col min="21" max="16384" width="8" style="5"/>
+    <col min="19" max="16384" width="8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +855,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="31"/>
@@ -869,10 +872,8 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
       <c r="Q2" s="3"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -895,10 +896,8 @@
       <c r="O3" s="7"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="23"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -927,10 +926,8 @@
       <c r="O4" s="9"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="25"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -959,10 +956,8 @@
       <c r="O5" s="11"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="25"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
@@ -991,10 +986,8 @@
       <c r="O6" s="9"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="25"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
@@ -1017,10 +1010,8 @@
       <c r="O7" s="9"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="25"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1049,10 +1040,8 @@
       <c r="O8" s="11"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="25"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>10</v>
       </c>
@@ -1081,10 +1070,8 @@
       <c r="O9" s="12"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="25"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1107,10 +1094,8 @@
       <c r="O10" s="12"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="25"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1139,10 +1124,8 @@
       <c r="O11" s="11"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="25"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1165,10 +1148,8 @@
       <c r="O12" s="14"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="25"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1191,10 +1172,8 @@
       <c r="O13" s="15"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="40"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1217,10 +1196,8 @@
       <c r="O14" s="15"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="40"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -1243,10 +1220,8 @@
       <c r="O15" s="15"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
@@ -1269,10 +1244,8 @@
       <c r="O16" s="15"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1295,10 +1268,8 @@
       <c r="O17" s="15"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="25"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
@@ -1322,10 +1293,8 @@
       <c r="O18" s="15"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="25"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:17" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1319,7 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="25"/>
     </row>
-    <row r="20" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -1368,10 +1337,8 @@
       <c r="O20" s="18"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="25"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>22</v>
       </c>
@@ -1401,10 +1368,8 @@
       <c r="O21" s="9"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="16" t="s">
         <v>24</v>
@@ -1428,10 +1393,8 @@
       <c r="O22" s="9"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="25"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>25</v>
       </c>
@@ -1455,12 +1418,9 @@
       <c r="O23" s="21"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="P23:Q23"/>
@@ -1484,33 +1444,28 @@
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:G10"/>
@@ -1525,6 +1480,13 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -1537,13 +1499,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll6Table.xlsx
+++ b/src/main/resources/hr/payroll6Table.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65936B99-D3F6-460B-810E-8E020E23C457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BEAD48F6-C16E-4267-B125-FF8BDB0E7B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="5820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="급여표" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">급여표!$A$1:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,10 +451,10 @@
     <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,28 +463,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,23 +484,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -810,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -835,67 +828,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="M3" s="28" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="M3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="29"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -958,7 +951,7 @@
       <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -968,7 +961,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -977,7 +970,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -988,7 +981,7 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -996,14 +989,14 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="36"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="24"/>
       <c r="K7" s="25"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1035,7 @@
       <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1052,7 +1045,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="30" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1061,7 +1054,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="24"/>
       <c r="K9" s="25"/>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="30" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -1072,7 +1065,7 @@
       <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1080,14 +1073,14 @@
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="35"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
-      <c r="M10" s="35"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1155,23 +1148,23 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="4"/>
       <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
       <c r="M13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1179,23 +1172,23 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="4"/>
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
       <c r="M14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -1203,23 +1196,24 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="4"/>
       <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -1227,23 +1221,24 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="4"/>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -1339,7 +1334,7 @@
       <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -1349,7 +1344,7 @@
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
@@ -1359,7 +1354,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="16" t="s">
@@ -1370,7 +1365,7 @@
       <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1373,7 @@
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="16" t="s">
         <v>24</v>
       </c>
@@ -1386,7 +1381,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="33"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="16" t="s">
         <v>24</v>
       </c>
@@ -1400,27 +1395,95 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="4"/>
       <c r="G23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="6"/>
       <c r="M23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="P23:Q23"/>
@@ -1437,74 +1500,6 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll6Table.xlsx
+++ b/src/main/resources/hr/payroll6Table.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BEAD48F6-C16E-4267-B125-FF8BDB0E7B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC26083-7C69-4D15-A513-7DC2E23982F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="5820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="급여표" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">급여표!$A$1:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +455,15 @@
     <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -507,9 +520,6 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -803,11 +813,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -820,77 +828,87 @@
     <col min="13" max="14" width="12" style="5" customWidth="1"/>
     <col min="15" max="17" width="9" style="5" customWidth="1"/>
     <col min="18" max="18" width="1.625" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8" style="5"/>
+    <col min="19" max="21" width="8" style="5"/>
+    <col min="22" max="22" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="26"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="29"/>
       <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="27"/>
+      <c r="S1"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+    </row>
+    <row r="2" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="27"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="30"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+    </row>
+    <row r="3" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="M3" s="35" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="M3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+      <c r="S3"/>
+      <c r="U3"/>
+      <c r="V3" s="23"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -898,8 +916,8 @@
         <v>3</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
@@ -908,8 +926,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="M4" s="8" t="s">
         <v>2</v>
       </c>
@@ -917,10 +935,14 @@
         <v>3</v>
       </c>
       <c r="O4" s="9"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -928,8 +950,8 @@
         <v>5</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="s">
         <v>4</v>
@@ -938,8 +960,8 @@
         <v>5</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="M5" s="10" t="s">
         <v>4</v>
       </c>
@@ -947,64 +969,75 @@
         <v>5</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="30" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6" s="23"/>
+    </row>
+    <row r="7" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="32"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="32"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1045,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
         <v>9</v>
@@ -1022,8 +1055,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="M8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1031,64 +1064,75 @@
         <v>5</v>
       </c>
       <c r="O8" s="11"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="30" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="M9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="31"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" s="23"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1096,8 +1140,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="4"/>
       <c r="G11" s="10" t="s">
         <v>13</v>
@@ -1106,8 +1150,8 @@
         <v>5</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1115,307 +1159,340 @@
         <v>5</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
       <c r="M12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="S12"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4"/>
       <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="M13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="S13"/>
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="4"/>
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
       <c r="M14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="S14"/>
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="4"/>
       <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="41"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="S15"/>
+      <c r="U15"/>
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="4"/>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="41"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="S16"/>
+      <c r="U16"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="M17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-    </row>
-    <row r="18" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="S17"/>
+      <c r="U17"/>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="4"/>
       <c r="G18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="6"/>
       <c r="M18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="S18"/>
+      <c r="U18"/>
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" spans="1:22" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="4"/>
       <c r="G19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="19"/>
       <c r="M19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="S19"/>
+      <c r="U19"/>
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="4"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="6"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="9"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
       <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="27"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="27"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="T22"/>
+      <c r="V22" s="23"/>
+    </row>
+    <row r="23" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="4"/>
       <c r="G23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="6"/>
       <c r="M23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="S23"/>
+      <c r="V23" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="86">
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="D4:E4"/>
@@ -1443,20 +1520,20 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="J11:K11"/>
@@ -1470,13 +1547,14 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:G22"/>
@@ -1484,6 +1562,9 @@
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="P23:Q23"/>
@@ -1498,8 +1579,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
